--- a/Document/3_Test Case/Test case 통합.xlsx
+++ b/Document/3_Test Case/Test case 통합.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D8E740-C64A-4739-B3E0-62F4FE0248FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06676EBB-2525-5A47-9D82-6AAEAB22CA3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1329,12 +1329,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1428,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1469,7 +1475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1504,6 +1510,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,13 +1550,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{D4C7A8C1-9DBB-40E6-89FC-A7BAD682F3FE}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1851,66 +1860,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F218289-417F-4BB3-B14A-D058BACC0645}">
   <dimension ref="B2:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.08203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.83203125" customWidth="1"/>
     <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08203125" customWidth="1"/>
+    <col min="18" max="18" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="31" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+    <row r="3" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>233</v>
       </c>
@@ -1950,11 +1959,11 @@
       <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1">
+      <c r="R3" s="34"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="27" t="s">
@@ -2003,7 +2012,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1">
+    <row r="5" spans="2:20" ht="34.25" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="28" t="s">
@@ -2052,7 +2061,7 @@
       <c r="S5" s="21"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="2:20" ht="34.15" customHeight="1">
+    <row r="6" spans="2:20" ht="34.25" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="8" t="s">
@@ -2101,7 +2110,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="2:20" ht="34.15" customHeight="1">
+    <row r="7" spans="2:20" ht="34.25" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="8" t="s">
@@ -2150,7 +2159,7 @@
       <c r="S7" s="21"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" spans="2:20" ht="34.15" customHeight="1">
+    <row r="8" spans="2:20" ht="34.25" customHeight="1">
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="8" t="s">
@@ -2199,7 +2208,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="2:20" ht="34.15" customHeight="1">
+    <row r="9" spans="2:20" ht="34.25" customHeight="1">
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="8" t="s">
@@ -2248,7 +2257,7 @@
       <c r="S9" s="21"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="34.15" customHeight="1">
+    <row r="10" spans="2:20" ht="34.25" customHeight="1">
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
@@ -2297,7 +2306,7 @@
       <c r="S10" s="21"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="2:20" ht="34.15" customHeight="1">
+    <row r="11" spans="2:20" ht="34.25" customHeight="1">
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="8" t="s">
@@ -2346,7 +2355,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="2:20" ht="34.15" customHeight="1">
+    <row r="12" spans="2:20" ht="34.25" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="8" t="s">
@@ -2395,7 +2404,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="2:20" ht="34.15" customHeight="1">
+    <row r="13" spans="2:20" ht="34.25" customHeight="1">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
@@ -2444,7 +2453,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="2:20" ht="34.15" customHeight="1">
+    <row r="14" spans="2:20" ht="34.25" customHeight="1">
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="8" t="s">
@@ -2493,16 +2502,16 @@
       <c r="S14" s="21"/>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="2:20" ht="34.15" customHeight="1">
+    <row r="15" spans="2:20" ht="34.25" customHeight="1">
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="31" t="s">
         <v>301</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="31" t="s">
         <v>310</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -2524,26 +2533,26 @@
         <v>17</v>
       </c>
       <c r="O15" s="10"/>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q15" s="10"/>
-      <c r="R15" s="44" t="s">
+      <c r="R15" s="32" t="s">
         <v>317</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" s="22"/>
     </row>
-    <row r="16" spans="2:20" ht="34.15" customHeight="1">
+    <row r="16" spans="2:20" ht="34.25" customHeight="1">
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="31" t="s">
         <v>302</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="31" t="s">
         <v>311</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -2565,26 +2574,26 @@
         <v>17</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q16" s="10"/>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="32" t="s">
         <v>317</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="2:20" ht="34.15" customHeight="1">
+    <row r="17" spans="2:20" ht="34.25" customHeight="1">
       <c r="B17" s="24"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="31" t="s">
         <v>303</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="31" t="s">
         <v>312</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -2606,26 +2615,26 @@
         <v>17</v>
       </c>
       <c r="O17" s="10"/>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q17" s="10"/>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="32" t="s">
         <v>318</v>
       </c>
       <c r="S17" s="25"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="2:20" ht="34.15" customHeight="1">
+    <row r="18" spans="2:20" ht="34.25" customHeight="1">
       <c r="B18" s="24"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="31" t="s">
         <v>304</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="31" t="s">
         <v>313</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -2647,26 +2656,26 @@
         <v>17</v>
       </c>
       <c r="O18" s="10"/>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q18" s="10"/>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="32" t="s">
         <v>319</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="2:20" ht="34.15" customHeight="1">
+    <row r="19" spans="2:20" ht="34.25" customHeight="1">
       <c r="B19" s="24"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="31" t="s">
         <v>305</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="31" t="s">
         <v>314</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -2688,26 +2697,26 @@
         <v>17</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q19" s="10"/>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="32" t="s">
         <v>320</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="2:20" ht="34.15" customHeight="1">
+    <row r="20" spans="2:20" ht="34.25" customHeight="1">
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="31" t="s">
         <v>306</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="31" t="s">
         <v>315</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -2729,26 +2738,26 @@
         <v>17</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="31" t="s">
         <v>271</v>
       </c>
       <c r="Q20" s="10"/>
-      <c r="R20" s="44" t="s">
+      <c r="R20" s="32" t="s">
         <v>320</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="2:20" ht="34.15" customHeight="1">
+    <row r="21" spans="2:20" ht="34.25" customHeight="1">
       <c r="B21" s="24"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="31" t="s">
         <v>307</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="31" t="s">
         <v>316</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -2770,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="31" t="s">
         <v>297</v>
       </c>
       <c r="Q21" s="10"/>
@@ -2780,16 +2789,16 @@
       <c r="S21" s="25"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="2:20" ht="34.15" customHeight="1">
+    <row r="22" spans="2:20" ht="34.25" customHeight="1">
       <c r="B22" s="24"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="31" t="s">
         <v>308</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="31" t="s">
         <v>316</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -2811,26 +2820,26 @@
         <v>17</v>
       </c>
       <c r="O22" s="10"/>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="31" t="s">
         <v>297</v>
       </c>
       <c r="Q22" s="10"/>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="32" t="s">
         <v>322</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="2:20" ht="34.15" customHeight="1">
+    <row r="23" spans="2:20" ht="34.25" customHeight="1">
       <c r="B23" s="24"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="31" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="31" t="s">
         <v>310</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -2852,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="31" t="s">
         <v>297</v>
       </c>
       <c r="Q23" s="10"/>
@@ -2862,16 +2871,16 @@
       <c r="S23" s="25"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="2:20" ht="34.15" customHeight="1">
+    <row r="24" spans="2:20" ht="34.25" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="31" t="s">
         <v>308</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="31" t="s">
         <v>310</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -2893,17 +2902,17 @@
         <v>17</v>
       </c>
       <c r="O24" s="10"/>
-      <c r="P24" s="43" t="s">
+      <c r="P24" s="31" t="s">
         <v>297</v>
       </c>
       <c r="Q24" s="10"/>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="32" t="s">
         <v>324</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="2:20" ht="34.15" customHeight="1">
+    <row r="25" spans="2:20" ht="34.25" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -2954,7 +2963,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20" ht="34.15" customHeight="1">
+    <row r="26" spans="2:20" ht="34.25" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
@@ -3355,56 +3364,56 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="14" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="14" max="14" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="34.15" customHeight="1">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="31" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="34.15" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+    <row r="3" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -3432,11 +3441,11 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="2:16" ht="34.15" customHeight="1">
+      <c r="N3" s="34"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="2:16" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -3475,7 +3484,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" ht="34.15" customHeight="1">
+    <row r="5" spans="2:16" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -3810,63 +3819,63 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="29.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="35.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9140625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.9140625" customWidth="1"/>
-    <col min="18" max="18" width="78.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08203125" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" customWidth="1"/>
+    <col min="18" max="18" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="38" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="31" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+    <row r="3" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3904,11 +3913,11 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1">
+      <c r="R3" s="34"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -3957,7 +3966,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1">
+    <row r="5" spans="2:20" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -4006,7 +4015,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" ht="34.15" customHeight="1">
+    <row r="6" spans="2:20" ht="34.25" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -4055,7 +4064,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" ht="34.15" customHeight="1">
+    <row r="7" spans="2:20" ht="34.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -4104,7 +4113,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" ht="34.15" customHeight="1">
+    <row r="8" spans="2:20" ht="34.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -4127,7 +4136,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" ht="34.15" customHeight="1">
+    <row r="9" spans="2:20" ht="34.25" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -4176,7 +4185,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="2:20" ht="34.15" customHeight="1">
+    <row r="10" spans="2:20" ht="34.25" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -4225,7 +4234,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="34.15" customHeight="1">
+    <row r="11" spans="2:20" ht="34.25" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -4274,7 +4283,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="34.15" customHeight="1">
+    <row r="12" spans="2:20" ht="34.25" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -4323,7 +4332,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="2:20" ht="34.15" customHeight="1">
+    <row r="13" spans="2:20" ht="34.25" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -4372,7 +4381,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="34.15" customHeight="1">
+    <row r="14" spans="2:20" ht="34.25" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -4421,7 +4430,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="2:20" ht="34.15" customHeight="1">
+    <row r="15" spans="2:20" ht="34.25" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
@@ -4470,7 +4479,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="2:20" ht="34.15" customHeight="1">
+    <row r="16" spans="2:20" ht="34.25" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -4519,7 +4528,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="2:20" ht="34.15" customHeight="1">
+    <row r="17" spans="2:20" ht="34.25" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
@@ -4568,7 +4577,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="2:20" ht="34.15" customHeight="1">
+    <row r="18" spans="2:20" ht="34.25" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
@@ -4640,7 +4649,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="2:20" ht="34.15" customHeight="1">
+    <row r="20" spans="2:20" ht="34.25" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -4689,7 +4698,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="2:20" ht="34.15" customHeight="1">
+    <row r="21" spans="2:20" ht="34.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -4738,7 +4747,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="2:20" ht="34.15" customHeight="1">
+    <row r="22" spans="2:20" ht="34.25" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -4810,63 +4819,63 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="29.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.9140625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" customWidth="1"/>
-    <col min="17" max="17" width="78.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="17" max="17" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="31" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -4903,11 +4912,11 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1">
+      <c r="Q3" s="34"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -4955,7 +4964,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1">
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -5003,7 +5012,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="2:19" ht="34.15" customHeight="1">
+    <row r="6" spans="2:19" ht="34.25" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -5051,7 +5060,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="2:19" ht="34.15" customHeight="1">
+    <row r="7" spans="2:19" ht="34.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -5099,7 +5108,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="34.15" customHeight="1">
+    <row r="8" spans="2:19" ht="34.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -5147,7 +5156,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="2:19" ht="34.15" customHeight="1">
+    <row r="9" spans="2:19" ht="34.25" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -5195,7 +5204,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="34.15" customHeight="1">
+    <row r="10" spans="2:19" ht="34.25" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -5243,7 +5252,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="2:19" ht="34.15" customHeight="1">
+    <row r="11" spans="2:19" ht="34.25" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -5291,7 +5300,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="34.15" customHeight="1">
+    <row r="12" spans="2:19" ht="34.25" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -5339,7 +5348,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="34.15" customHeight="1">
+    <row r="13" spans="2:19" ht="34.25" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -5361,7 +5370,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="2:19" ht="34.15" customHeight="1">
+    <row r="14" spans="2:19" ht="34.25" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -5430,60 +5439,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="112.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="94.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="34.15" customHeight="1">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:15" ht="34.25" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="31" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="34.15" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+    <row r="3" spans="2:15" ht="34.25" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -5508,14 +5517,14 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="2:15" ht="34.15" customHeight="1">
+      <c r="M3" s="34"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="2:15" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="45" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -5548,10 +5557,10 @@
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" ht="34.15" customHeight="1">
+    <row r="5" spans="2:15" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -5587,7 +5596,7 @@
     <row r="6" spans="2:15" ht="34" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -5944,7 +5953,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" ht="34.15" customHeight="1">
+    <row r="16" spans="2:15" ht="34.25" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -5980,10 +5989,10 @@
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="34.15" customHeight="1">
+    <row r="17" spans="2:15" ht="34.25" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="45" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -6016,10 +6025,10 @@
       <c r="N17" s="6"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" ht="34.15" customHeight="1">
+    <row r="18" spans="2:15" ht="34.25" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="45" t="s">
         <v>224</v>
       </c>
       <c r="E18" s="8"/>
@@ -6034,10 +6043,10 @@
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" ht="34.15" customHeight="1">
+    <row r="19" spans="2:15" ht="34.25" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="45" t="s">
         <v>225</v>
       </c>
       <c r="E19" s="8"/>
@@ -6052,7 +6061,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" ht="34.15" customHeight="1">
+    <row r="20" spans="2:15" ht="34.25" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -6088,7 +6097,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" ht="34.15" customHeight="1">
+    <row r="21" spans="2:15" ht="34.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -6124,7 +6133,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" ht="34.15" customHeight="1">
+    <row r="22" spans="2:15" ht="34.25" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -6160,7 +6169,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" ht="34.15" customHeight="1">
+    <row r="23" spans="2:15" ht="34.25" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8" t="s">
@@ -6196,7 +6205,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" ht="34.15" customHeight="1">
+    <row r="24" spans="2:15" ht="34.25" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
@@ -6232,7 +6241,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" ht="34.15" customHeight="1">
+    <row r="25" spans="2:15" ht="34.25" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -6268,7 +6277,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" ht="34.15" customHeight="1">
+    <row r="26" spans="2:15" ht="34.25" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
@@ -6304,7 +6313,7 @@
       <c r="N26" s="6"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" ht="34.15" customHeight="1">
+    <row r="27" spans="2:15" ht="34.25" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
@@ -6340,7 +6349,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" ht="34.15" customHeight="1">
+    <row r="28" spans="2:15" ht="34.25" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8" t="s">
@@ -6376,7 +6385,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" ht="34.15" customHeight="1">
+    <row r="29" spans="2:15" ht="34.25" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -6412,7 +6421,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" ht="34.15" customHeight="1">
+    <row r="30" spans="2:15" ht="34.25" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
@@ -6448,7 +6457,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" ht="34.15" customHeight="1">
+    <row r="31" spans="2:15" ht="34.25" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
@@ -6484,7 +6493,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" ht="34.15" customHeight="1">
+    <row r="32" spans="2:15" ht="34.25" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8" t="s">
@@ -6520,7 +6529,7 @@
       <c r="N32" s="6"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" ht="34.15" customHeight="1">
+    <row r="33" spans="2:15" ht="34.25" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8" t="s">
@@ -6556,7 +6565,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="34.15" customHeight="1">
+    <row r="34" spans="2:15" ht="34.25" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
